--- a/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Linear.xlsx
+++ b/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Dampers\Damper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D192E54-ECB0-49EC-828A-042F02BB2E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9BD596-FD66-4129-A668-EDB942A6BD86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="961" activeTab="10" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
+    <workbookView xWindow="18390" yWindow="4110" windowWidth="8910" windowHeight="10215" tabRatio="961" firstSheet="4" activeTab="7" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,15 @@
     <sheet name="Sedan_HambaLG_stiff_r" sheetId="4" r:id="rId4"/>
     <sheet name="Sedan_Hamba_f" sheetId="5" r:id="rId5"/>
     <sheet name="Sedan_Hamba_r" sheetId="6" r:id="rId6"/>
-    <sheet name="Sedan_Hamba_LiveAxle_r" sheetId="11" r:id="rId7"/>
-    <sheet name="Bus_Makhulu_f" sheetId="7" r:id="rId8"/>
-    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId9"/>
-    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="12" r:id="rId10"/>
-    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="13" r:id="rId11"/>
-    <sheet name="Trailer1Elula_f" sheetId="9" r:id="rId12"/>
-    <sheet name="Trailer1Thwala_f" sheetId="10" r:id="rId13"/>
+    <sheet name="Achilles_f" sheetId="14" r:id="rId7"/>
+    <sheet name="Achilles_r" sheetId="15" r:id="rId8"/>
+    <sheet name="Sedan_Hamba_LiveAxle_r" sheetId="11" r:id="rId9"/>
+    <sheet name="Bus_Makhulu_f" sheetId="7" r:id="rId10"/>
+    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId11"/>
+    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="12" r:id="rId12"/>
+    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="13" r:id="rId13"/>
+    <sheet name="Trailer1Elula_f" sheetId="9" r:id="rId14"/>
+    <sheet name="Trailer1Thwala_f" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="41">
   <si>
     <t>Units</t>
   </si>
@@ -161,6 +163,12 @@
   <si>
     <t>Bus_Makhulu_Axle3_Linear_A3</t>
   </si>
+  <si>
+    <t>FSAE_Achilles_Linear_A1</t>
+  </si>
+  <si>
+    <t>FSAE_Achilles_Linear_A2</t>
+  </si>
 </sst>
 </file>
 
@@ -239,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -279,11 +287,82 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="82">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1734,27 +1813,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1763,6 +1842,1272 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048F6BA7-CA71-43F3-B6EB-63B4345EED12}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:AA27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="R10" sqref="R10"/>
+      <selection pane="topRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-0.05</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.56449999999999989</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6.4299999999999968E-2</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="7">
+        <v>-0.15</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+    </row>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+    </row>
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+    </row>
+    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+    </row>
+    <row r="26" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T27" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB004B0-3819-4EDB-9CF7-B5A9725EA714}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:AA26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D35" sqref="D35"/>
+      <selection pane="topRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="U32" sqref="U32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13">
+        <v>20000</v>
+      </c>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-6.3E-3</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.53050000000000008</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="7">
+        <v>-0.15</v>
+      </c>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+    </row>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+    </row>
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+    </row>
+    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+    </row>
+    <row r="26" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B13">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:B14">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D744F-CF11-46CE-8654-1C704A9B9737}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -2329,32 +3674,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B13">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2363,14 +3708,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4C47AE-1E73-4D0F-9DD2-355985429647}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D35" sqref="D35"/>
       <selection pane="topRight" activeCell="D35" sqref="D35"/>
@@ -2930,32 +4275,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B13">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2964,7 +4309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271EE6D1-75D9-405D-A4CA-8FB1F05E1561}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -3602,27 +4947,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3630,7 +4975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF91B1B0-A177-4607-955B-BD3EC7691CEE}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -4268,27 +5613,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4863,32 +6208,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="66" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="65" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="64" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B13">
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5534,27 +6879,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6129,32 +7474,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B13">
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6800,27 +8145,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7395,32 +8740,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B13">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7429,6 +8774,1338 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303DE00C-0D22-4E10-ADDF-A6B5A2804B27}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:AA27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="R10" sqref="R10"/>
+      <selection pane="topRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13">
+        <v>5000</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="21">
+        <v>-0.18698999999999999</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H6" s="21">
+        <v>8.6370000000000002E-2</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="21">
+        <v>-1.342E-2</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.15826999999999999</v>
+      </c>
+      <c r="H7" s="21">
+        <v>8.8069999999999996E-2</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="7">
+        <v>-0.15</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+    </row>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+    </row>
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+    </row>
+    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+    </row>
+    <row r="26" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T27" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F89D19-CC9A-4B9F-B46A-567CDA61FCA2}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:AA27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="R10" sqref="R10"/>
+      <selection pane="topRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13">
+        <v>5000</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.22999</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.15606999999999999</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="21">
+        <v>5.9749999999999998E-2</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.26723000000000002</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.16078999999999999</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="7">
+        <v>-0.15</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+    </row>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+    </row>
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+    </row>
+    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+    </row>
+    <row r="26" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T27" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8422437-DD08-4914-9D5A-D939D2B8635C}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -7995,1298 +10672,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B13">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048F6BA7-CA71-43F3-B6EB-63B4345EED12}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:AA27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="R10" sqref="R10"/>
-      <selection pane="topRight" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13">
-        <v>20000</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7">
-        <v>-0.05</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.62250000000000005</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7">
-        <v>-2.0999999999999999E-3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.56449999999999989</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6.4299999999999968E-2</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="7">
-        <v>-0.15</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-    </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-    </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-    </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-    </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-    </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-    </row>
-    <row r="26" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T27" s="6"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB004B0-3819-4EDB-9CF7-B5A9725EA714}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:AA26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D35" sqref="D35"/>
-      <selection pane="topRight" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomRight" activeCell="U32" sqref="U32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13">
-        <v>20000</v>
-      </c>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7">
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.62250000000000005</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7">
-        <v>-6.3E-3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.53050000000000008</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="7">
-        <v>-0.15</v>
-      </c>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-    </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-    </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-    </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-    </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-    </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-    </row>
-    <row r="26" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B13">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:B14">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Linear.xlsx
+++ b/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Dampers\Damper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9BD596-FD66-4129-A668-EDB942A6BD86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4605F791-350D-455D-A320-BC2CDA507D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18390" yWindow="4110" windowWidth="8910" windowHeight="10215" tabRatio="961" firstSheet="4" activeTab="7" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
+    <workbookView xWindow="12945" yWindow="3255" windowWidth="14235" windowHeight="10935" tabRatio="967" firstSheet="6" activeTab="8" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -247,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -286,7 +291,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,7 +1173,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1178,7 +1182,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E884C41-AB00-42A6-9A88-94E18C7C5F41}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
@@ -1187,7 +1191,7 @@
       <selection activeCell="R10" sqref="R10"/>
       <selection pane="topRight" activeCell="R10" sqref="R10"/>
       <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,11 +1367,11 @@
       <c r="F6" s="20">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G6" s="20">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0.72138857142857149</v>
+      <c r="G6" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.65</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="14" t="s">
@@ -1403,11 +1407,11 @@
       <c r="F7" s="20">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G7" s="20">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H7" s="20">
-        <v>0.10791857142857141</v>
+      <c r="G7" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.19</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1844,7 +1848,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048F6BA7-CA71-43F3-B6EB-63B4345EED12}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
@@ -1853,7 +1857,7 @@
       <selection activeCell="R10" sqref="R10"/>
       <selection pane="topRight" activeCell="R10" sqref="R10"/>
       <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,14 +2030,15 @@
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7">
-        <v>-0.05</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.62250000000000005</v>
+      <c r="F6" s="19">
+        <f>-0.0022+0.02</f>
+        <v>1.78E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.73380000000000001</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="14" t="s">
@@ -2066,14 +2071,15 @@
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7">
-        <v>-2.0999999999999999E-3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.56449999999999989</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6.4299999999999968E-2</v>
+      <c r="F7" s="19">
+        <f>0.0457+0.02</f>
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.74</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.28999999999999998</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -2145,7 +2151,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="7">
-        <v>-0.15</v>
+        <v>-0.1</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -2479,27 +2485,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2510,7 +2516,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB004B0-3819-4EDB-9CF7-B5A9725EA714}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
@@ -2519,7 +2525,7 @@
       <selection activeCell="D35" sqref="D35"/>
       <selection pane="topRight" activeCell="D35" sqref="D35"/>
       <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomRight" activeCell="U32" sqref="U32"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,14 +2674,15 @@
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7">
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.62250000000000005</v>
+      <c r="F6" s="19">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.73650000000000015</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>15</v>
@@ -2698,14 +2705,15 @@
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7">
-        <v>-6.3E-3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.53050000000000008</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4.6399999999999997E-2</v>
+      <c r="F7" s="19">
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.26040000000000008</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -2757,7 +2765,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="7">
-        <v>-0.15</v>
+        <v>-0.1</v>
       </c>
       <c r="U9"/>
       <c r="V9"/>
@@ -3074,32 +3082,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B13">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3110,7 +3118,7 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D744F-CF11-46CE-8654-1C704A9B9737}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
@@ -3119,7 +3127,7 @@
       <selection activeCell="D35" sqref="D35"/>
       <selection pane="topRight" activeCell="D35" sqref="D35"/>
       <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3268,14 +3276,15 @@
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7">
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.62250000000000005</v>
+      <c r="F6" s="19">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.73650000000000015</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>15</v>
@@ -3298,14 +3307,15 @@
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7">
-        <v>-6.3E-3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.53050000000000008</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4.6399999999999997E-2</v>
+      <c r="F7" s="19">
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.26040000000000008</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -3330,7 +3340,7 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="7">
+      <c r="H8" s="19">
         <v>0.1</v>
       </c>
       <c r="J8" s="15" t="s">
@@ -3356,8 +3366,8 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="7">
-        <v>-0.15</v>
+      <c r="H9" s="19">
+        <v>-0.1</v>
       </c>
       <c r="U9"/>
       <c r="V9"/>
@@ -3674,32 +3684,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B13">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3711,7 +3721,7 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4C47AE-1E73-4D0F-9DD2-355985429647}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
@@ -3720,7 +3730,7 @@
       <selection activeCell="D35" sqref="D35"/>
       <selection pane="topRight" activeCell="D35" sqref="D35"/>
       <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomRight" activeCell="U28" sqref="U28"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3869,14 +3879,15 @@
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7">
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.62250000000000005</v>
+      <c r="F6" s="19">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.73650000000000015</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>15</v>
@@ -3899,14 +3910,15 @@
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7">
-        <v>-6.3E-3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.53050000000000008</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4.6399999999999997E-2</v>
+      <c r="F7" s="19">
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.26040000000000008</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -3931,7 +3943,7 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="7">
+      <c r="H8" s="19">
         <v>0.1</v>
       </c>
       <c r="J8" s="15" t="s">
@@ -3957,8 +3969,8 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="7">
-        <v>-0.15</v>
+      <c r="H9" s="19">
+        <v>-0.1</v>
       </c>
       <c r="U9"/>
       <c r="V9"/>
@@ -4275,32 +4287,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B13">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4312,7 +4324,7 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271EE6D1-75D9-405D-A4CA-8FB1F05E1561}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
@@ -4321,7 +4333,7 @@
       <selection activeCell="R10" sqref="R10"/>
       <selection pane="topRight" activeCell="R10" sqref="R10"/>
       <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4495,13 +4507,14 @@
         <v>14</v>
       </c>
       <c r="F6" s="19">
-        <v>-2.2000000000000006E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G6" s="19">
-        <v>0.23499999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="H6" s="19">
-        <v>0.59760000000000002</v>
+        <f>0.5504-0.08-0.08</f>
+        <v>0.39039999999999997</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="14" t="s">
@@ -4535,13 +4548,14 @@
         <v>14</v>
       </c>
       <c r="F7" s="19">
-        <v>4.5700000000000005E-2</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="G7" s="19">
-        <v>0.56449999999999989</v>
+        <v>0.68</v>
       </c>
       <c r="H7" s="19">
-        <v>8.9399999999999966E-2</v>
+        <f>0.1552+0.08-0.07</f>
+        <v>0.16520000000000001</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -4576,8 +4590,8 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="7">
-        <v>0.1</v>
+      <c r="H8" s="19">
+        <v>0.05</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="15" t="s">
@@ -4612,8 +4626,8 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="7">
-        <v>-0.15</v>
+      <c r="H9" s="19">
+        <v>-0.05</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -4947,27 +4961,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4978,7 +4992,7 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF91B1B0-A177-4607-955B-BD3EC7691CEE}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
@@ -4987,7 +5001,7 @@
       <selection activeCell="R10" sqref="R10"/>
       <selection pane="topRight" activeCell="R10" sqref="R10"/>
       <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5161,13 +5175,14 @@
         <v>14</v>
       </c>
       <c r="F6" s="19">
-        <v>-2.2000000000000006E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G6" s="19">
-        <v>0.23499999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="H6" s="19">
-        <v>0.59760000000000002</v>
+        <f>0.5504-0.08-0.08</f>
+        <v>0.39039999999999997</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="14" t="s">
@@ -5201,13 +5216,14 @@
         <v>14</v>
       </c>
       <c r="F7" s="19">
-        <v>4.5700000000000005E-2</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="G7" s="19">
-        <v>0.56449999999999989</v>
+        <v>0.68</v>
       </c>
       <c r="H7" s="19">
-        <v>8.9399999999999966E-2</v>
+        <f>0.1552+0.08-0.07</f>
+        <v>0.16520000000000001</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -5242,8 +5258,8 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="7">
-        <v>0.1</v>
+      <c r="H8" s="19">
+        <v>0.05</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="15" t="s">
@@ -5278,8 +5294,8 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="7">
-        <v>-0.15</v>
+      <c r="H9" s="19">
+        <v>-0.05</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -5613,27 +5629,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5644,7 +5660,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0BDB64-2986-4FF9-B225-BEFF96E86BDE}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
@@ -5653,7 +5669,7 @@
       <selection activeCell="D35" sqref="D35"/>
       <selection pane="topRight" activeCell="D35" sqref="D35"/>
       <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5802,14 +5818,14 @@
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G6" s="20">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0.72138857142857149</v>
+      <c r="G6" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.65</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>15</v>
@@ -5832,14 +5848,14 @@
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G7" s="20">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H7" s="20">
-        <v>0.10791857142857141</v>
+      <c r="G7" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.19</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -6244,7 +6260,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0518EA6D-F38F-4F6A-8555-8079C156825A}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
@@ -6253,7 +6269,7 @@
       <selection activeCell="R10" sqref="R10"/>
       <selection pane="topRight" activeCell="R10" sqref="R10"/>
       <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6429,11 +6445,11 @@
       <c r="F6" s="20">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G6" s="20">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0.72138857142857149</v>
+      <c r="G6" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.65</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="14" t="s">
@@ -6469,11 +6485,11 @@
       <c r="F7" s="20">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G7" s="20">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H7" s="20">
-        <v>0.10791857142857141</v>
+      <c r="G7" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.19</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -6910,7 +6926,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B4774B-79F0-4893-845A-6869033BAC75}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
@@ -6919,7 +6935,7 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7068,14 +7084,14 @@
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G6" s="20">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0.72138857142857149</v>
+      <c r="G6" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.65</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>15</v>
@@ -7098,14 +7114,14 @@
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G7" s="20">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H7" s="20">
-        <v>0.10791857142857141</v>
+      <c r="G7" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.19</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -7510,7 +7526,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDE7E6E-4C66-4C6D-BB1A-834603CD07F8}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
@@ -7519,7 +7535,7 @@
       <selection activeCell="R10" sqref="R10"/>
       <selection pane="topRight" activeCell="R10" sqref="R10"/>
       <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7661,7 +7677,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -7692,14 +7708,15 @@
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="19">
-        <v>-2.2000000000000006E-3</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H6" s="19">
-        <v>0.59760000000000002</v>
+      <c r="F6" s="20">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.49198500000000001</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.52585999999999999</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="14" t="s">
@@ -7732,14 +7749,15 @@
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="19">
-        <v>4.5700000000000005E-2</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0.56449999999999989</v>
-      </c>
-      <c r="H7" s="19">
-        <v>8.9399999999999966E-2</v>
+      <c r="F7" s="20">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0.15</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -7774,7 +7792,7 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="7">
+      <c r="H8" s="19">
         <v>0.1</v>
       </c>
       <c r="I8"/>
@@ -7810,8 +7828,8 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="7">
-        <v>-0.15</v>
+      <c r="H9" s="19">
+        <v>-0.1</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -8176,7 +8194,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B0F706-8EC8-48DD-9975-D1D6E768746A}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
@@ -8185,7 +8203,7 @@
       <selection activeCell="D35" sqref="D35"/>
       <selection pane="topRight" activeCell="D35" sqref="D35"/>
       <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8315,7 +8333,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="U5"/>
       <c r="V5"/>
@@ -8335,13 +8353,14 @@
         <v>14</v>
       </c>
       <c r="F6" s="19">
-        <v>2.2000000000000006E-3</v>
+        <f>-0.01387-0.04</f>
+        <v>-5.3870000000000001E-2</v>
       </c>
       <c r="G6" s="19">
-        <v>0.23499999999999999</v>
+        <v>0.49195</v>
       </c>
       <c r="H6" s="19">
-        <v>0.59760000000000002</v>
+        <v>0.52285999999999999</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>15</v>
@@ -8365,13 +8384,14 @@
         <v>14</v>
       </c>
       <c r="F7" s="19">
-        <v>-4.5700000000000005E-2</v>
+        <f>-0.013587-0.04</f>
+        <v>-5.3587000000000003E-2</v>
       </c>
       <c r="G7" s="19">
-        <v>0.56449999999999989</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="H7" s="19">
-        <v>8.9399999999999966E-2</v>
+        <v>0.15</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -8396,7 +8416,7 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="7">
+      <c r="H8" s="19">
         <v>0.1</v>
       </c>
       <c r="J8" s="15" t="s">
@@ -8422,8 +8442,8 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="7">
-        <v>-0.15</v>
+      <c r="H9" s="19">
+        <v>-0.1</v>
       </c>
       <c r="U9"/>
       <c r="V9"/>
@@ -8785,7 +8805,7 @@
       <selection activeCell="R10" sqref="R10"/>
       <selection pane="topRight" activeCell="R10" sqref="R10"/>
       <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8958,13 +8978,13 @@
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>-0.18698999999999999</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>0.13600000000000001</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>8.6370000000000002E-2</v>
       </c>
       <c r="I6"/>
@@ -8998,13 +9018,13 @@
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>-1.342E-2</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>0.15826999999999999</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>8.8069999999999996E-2</v>
       </c>
       <c r="I7"/>
@@ -9041,7 +9061,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="7">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="15" t="s">
@@ -9077,7 +9097,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="7">
-        <v>-0.15</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -9411,27 +9431,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9446,12 +9466,12 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="R10" sqref="R10"/>
       <selection pane="topRight" activeCell="R10" sqref="R10"/>
       <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9624,13 +9644,13 @@
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>0.22999</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>0.22700000000000001</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>0.15606999999999999</v>
       </c>
       <c r="I6"/>
@@ -9664,13 +9684,13 @@
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>5.9749999999999998E-2</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>0.26723000000000002</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>0.16078999999999999</v>
       </c>
       <c r="I7"/>
@@ -9707,7 +9727,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="7">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="15" t="s">
@@ -9743,7 +9763,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="7">
-        <v>-0.15</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -10077,27 +10097,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10112,7 +10132,7 @@
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D35" sqref="D35"/>
       <selection pane="topRight" activeCell="D35" sqref="D35"/>
@@ -10672,32 +10692,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B13">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Linear.xlsx
+++ b/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Linear.xlsx
@@ -1,35 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Dampers\Damper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5354CF-D962-4C88-B767-5910E6DEFA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F53967-C9F9-49CE-A121-9B7D2122A905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="967" firstSheet="6" activeTab="7" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
+    <workbookView xWindow="30915" yWindow="1755" windowWidth="25575" windowHeight="13875" tabRatio="967" activeTab="9" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
     <sheet name="Sedan_HambaLG_r" sheetId="3" r:id="rId2"/>
-    <sheet name="Sedan_HambaLG_stiff_f" sheetId="2" r:id="rId3"/>
-    <sheet name="Sedan_HambaLG_stiff_r" sheetId="4" r:id="rId4"/>
-    <sheet name="Sedan_Hamba_f" sheetId="5" r:id="rId5"/>
-    <sheet name="Sedan_Hamba_r" sheetId="6" r:id="rId6"/>
-    <sheet name="Achilles_f" sheetId="14" r:id="rId7"/>
-    <sheet name="Achilles_r" sheetId="15" r:id="rId8"/>
-    <sheet name="Achilles_DW_f" sheetId="16" r:id="rId9"/>
-    <sheet name="Achilles_DW_r" sheetId="17" r:id="rId10"/>
-    <sheet name="Sedan_Hamba_LiveAxle_r" sheetId="11" r:id="rId11"/>
-    <sheet name="Bus_Makhulu_f" sheetId="7" r:id="rId12"/>
-    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId13"/>
-    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="12" r:id="rId14"/>
-    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="13" r:id="rId15"/>
-    <sheet name="Trailer1Elula_f" sheetId="9" r:id="rId16"/>
-    <sheet name="Trailer1Thwala_f" sheetId="10" r:id="rId17"/>
+    <sheet name="Sedan_HambaLG_Mac_f" sheetId="21" r:id="rId3"/>
+    <sheet name="Sedan_HambaLG_stiff_f" sheetId="2" r:id="rId4"/>
+    <sheet name="Sedan_HambaLG_stiff_r" sheetId="4" r:id="rId5"/>
+    <sheet name="Sedan_Hamba_f" sheetId="5" r:id="rId6"/>
+    <sheet name="Sedan_Hamba_r" sheetId="6" r:id="rId7"/>
+    <sheet name="Achilles_f" sheetId="14" r:id="rId8"/>
+    <sheet name="Achilles_r" sheetId="15" r:id="rId9"/>
+    <sheet name="Achilles_Push_f" sheetId="19" r:id="rId10"/>
+    <sheet name="Achilles_Push_r" sheetId="20" r:id="rId11"/>
+    <sheet name="Achilles_DW_f" sheetId="16" r:id="rId12"/>
+    <sheet name="Achilles_DW_r" sheetId="17" r:id="rId13"/>
+    <sheet name="Sedan_Hamba_LiveAxle_r" sheetId="11" r:id="rId14"/>
+    <sheet name="Sedan_Hamba_TwistBeam_r" sheetId="18" r:id="rId15"/>
+    <sheet name="Bus_Makhulu_f" sheetId="7" r:id="rId16"/>
+    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId17"/>
+    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="12" r:id="rId18"/>
+    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="13" r:id="rId19"/>
+    <sheet name="Trailer1Elula_f" sheetId="9" r:id="rId20"/>
+    <sheet name="Trailer1Thwala_f" sheetId="10" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="47">
   <si>
     <t>Units</t>
   </si>
@@ -97,9 +101,6 @@
   </si>
   <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>Also in Linkage</t>
   </si>
   <si>
     <t>sBottom</t>
@@ -182,6 +183,21 @@
   <si>
     <t>FSAE_Achilles_DW_Linear_A2</t>
   </si>
+  <si>
+    <t>Sedan_Hamba_TwistBeam_A2</t>
+  </si>
+  <si>
+    <t>Must be consistent with values in Linkage</t>
+  </si>
+  <si>
+    <t>FSAE_Achilles_Push_Linear_A1</t>
+  </si>
+  <si>
+    <t>FSAE_Achilles_Push_Linear_A2</t>
+  </si>
+  <si>
+    <t>Sedan_HambaLG_Mac_Linear_A1</t>
+  </si>
 </sst>
 </file>
 
@@ -260,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -294,13 +310,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="84">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1094,10 +1224,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="R10" sqref="R10"/>
-      <selection pane="topRight" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6:H7"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1238,9 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1153,7 +1285,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1196,81 +1328,99 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="17">
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="17">
         <v>0.62</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="17">
         <v>0.65</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="17">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="19">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="17">
         <v>0.85</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="17">
         <v>0.19</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="6">
+      <c r="H8" s="18">
         <v>0.1</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="6">
+      <c r="H9" s="18">
         <v>-0.15</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1281,11 +1431,11 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -1296,11 +1446,11 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -1311,11 +1461,11 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -1326,7 +1476,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -1348,22 +1498,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="65" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1372,18 +1522,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9123868B-3CD7-4B0C-8979-5AA15C1FB32F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83080E28-D3C4-40AE-9E29-0AD7864B2A78}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="R10" sqref="R10"/>
-      <selection pane="topRight" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1544,9 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1439,7 +1591,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1470,8 +1622,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <f>5000*5*2*5</f>
-        <v>250000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1483,17 +1634,20 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0.28000000000000003</v>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.4</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -1502,20 +1656,26 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0.1</v>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="19">
+        <v>-1.342E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.15826999999999999</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -1523,47 +1683,56 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="6">
-        <v>0.03</v>
+      <c r="H8" s="20">
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="6">
-        <v>-0.03</v>
+      <c r="H9" s="20">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1574,11 +1743,11 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -1589,11 +1758,11 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -1604,11 +1773,11 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -1619,7 +1788,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -1641,22 +1810,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1665,18 +1834,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8422437-DD08-4914-9D5A-D939D2B8635C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1E1D6D-5BA2-427B-BE2D-342E15C476C6}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D35" sqref="D35"/>
-      <selection pane="topRight" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,10 +1856,12 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1710,7 +1881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1723,7 +1894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1732,11 +1903,11 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="9"/>
@@ -1749,7 +1920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1766,7 +1937,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="13" t="s">
         <v>13</v>
@@ -1775,81 +1946,105 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.8</v>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.22999</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.4</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.54</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="19">
+        <v>5.9749999999999998E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.26723000000000002</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="6">
-        <v>0.1</v>
+      <c r="H8" s="20">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="6">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="20">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1857,14 +2052,14 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -1872,14 +2067,14 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -1887,14 +2082,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -1902,10 +2097,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -1917,32 +2112,32 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="H16" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1951,18 +2146,18 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048F6BA7-CA71-43F3-B6EB-63B4345EED12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C003C0-2174-4FAC-921C-53CAD52A7556}">
   <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
+    <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="R10" sqref="R10"/>
-      <selection pane="topRight" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,10 +2168,12 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1996,7 +2193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2009,7 +2206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2018,10 +2215,10 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -2035,7 +2232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2049,10 +2246,11 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <f>5000*5*2*5</f>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="13" t="s">
         <v>13</v>
@@ -2061,83 +2259,105 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
-        <f>-0.0022+0.02</f>
-        <v>1.78E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.73380000000000001</v>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19">
+        <v>-0.03</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.28000000000000003</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
-        <f>0.0457+0.02</f>
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.74</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="19">
+        <v>-0.03</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="6">
-        <v>0.1</v>
+      <c r="H8" s="18">
+        <v>0.03</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="18">
+        <v>-0.03</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -2145,14 +2365,14 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -2160,14 +2380,14 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -2175,14 +2395,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -2190,10 +2410,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -2205,32 +2425,32 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="H16" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2239,18 +2459,18 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB004B0-3819-4EDB-9CF7-B5A9725EA714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9123868B-3CD7-4B0C-8979-5AA15C1FB32F}">
   <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
+    <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D35" sqref="D35"/>
-      <selection pane="topRight" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,10 +2481,12 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2284,7 +2506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2297,7 +2519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2306,11 +2528,11 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="9"/>
@@ -2323,7 +2545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2337,10 +2559,11 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <f>5000*5*2*5</f>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="13" t="s">
         <v>13</v>
@@ -2349,83 +2572,105 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
-        <f>-0.07</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.73650000000000015</v>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.28000000000000003</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
-        <f>-0.0013-0.05</f>
-        <v>-5.1300000000000005E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.26040000000000008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="6">
-        <v>0.1</v>
+      <c r="H8" s="18">
+        <v>0.03</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="18">
+        <v>-0.03</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -2433,14 +2678,14 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -2448,14 +2693,14 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -2463,14 +2708,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -2478,10 +2723,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -2493,32 +2738,32 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="H16" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2527,18 +2772,18 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D744F-CF11-46CE-8654-1C704A9B9737}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8422437-DD08-4914-9D5A-D939D2B8635C}">
   <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
+    <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D35" sqref="D35"/>
-      <selection pane="topRight" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6:H9"/>
+      <selection activeCell="O13" sqref="O13"/>
+      <selection pane="topRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,7 +2794,9 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2594,7 +2841,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2625,7 +2872,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2637,83 +2884,99 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
-        <f>-0.07</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.73650000000000015</v>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.8</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
-        <f>-0.0013-0.05</f>
-        <v>-5.1300000000000005E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.26040000000000008</v>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.54</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="6">
+      <c r="H8" s="18">
         <v>0.1</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="6">
-        <v>-0.1</v>
+      <c r="H9" s="18">
+        <v>-0.15</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -2724,11 +2987,11 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -2739,11 +3002,11 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -2754,11 +3017,11 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -2769,7 +3032,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -2791,43 +3054,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4C47AE-1E73-4D0F-9DD2-355985429647}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E9CAC4-CF0E-4DF1-8E00-9630BD30D17F}">
   <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
+    <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D35" sqref="D35"/>
-      <selection pane="topRight" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection activeCell="O13" sqref="O13"/>
+      <selection pane="topRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,7 +3100,9 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2883,7 +3147,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2914,7 +3178,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2926,83 +3190,99 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
-        <f>-0.07</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.73650000000000015</v>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.8</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
-        <f>-0.0013-0.05</f>
-        <v>-5.1300000000000005E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.26040000000000008</v>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="6">
+      <c r="H8" s="18">
         <v>0.1</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="6">
-        <v>-0.1</v>
+      <c r="H9" s="18">
+        <v>-0.15</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -3013,11 +3293,11 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -3028,11 +3308,11 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -3043,11 +3323,11 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -3058,7 +3338,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -3080,32 +3360,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271EE6D1-75D9-405D-A4CA-8FB1F05E1561}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048F6BA7-CA71-43F3-B6EB-63B4345EED12}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3113,10 +3392,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="R10" sqref="R10"/>
-      <selection pane="topRight" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6:H9"/>
+      <selection activeCell="J6" sqref="J6"/>
+      <selection pane="topRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3127,7 +3406,9 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3172,7 +3453,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3203,7 +3484,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <v>5000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3215,83 +3496,101 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="H6" s="6">
-        <f>0.5504-0.08-0.08</f>
-        <v>0.39039999999999997</v>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17">
+        <f>-0.0022+0.02</f>
+        <v>1.78E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.73380000000000001</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="H7" s="6">
-        <f>0.1552+0.08-0.07</f>
-        <v>0.16520000000000001</v>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
+        <f>0.0457+0.02</f>
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="6">
-        <v>0.05</v>
+      <c r="H8" s="18">
+        <v>0.1</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="6">
-        <v>-0.05</v>
+      <c r="H9" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -3302,11 +3601,11 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -3317,11 +3616,11 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -3332,11 +3631,11 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -3347,7 +3646,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -3369,22 +3668,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3393,7 +3692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF91B1B0-A177-4607-955B-BD3EC7691CEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB004B0-3819-4EDB-9CF7-B5A9725EA714}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3401,10 +3700,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="R10" sqref="R10"/>
-      <selection pane="topRight" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3415,7 +3714,9 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3460,11 +3761,11 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="9"/>
@@ -3491,7 +3792,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <v>5000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3503,83 +3804,101 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="H6" s="6">
-        <f>0.5504-0.08-0.08</f>
-        <v>0.39039999999999997</v>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.73650000000000015</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
+      </c>
+      <c r="G7" s="17">
         <v>0.68</v>
       </c>
-      <c r="H7" s="6">
-        <f>0.1552+0.08-0.07</f>
-        <v>0.16520000000000001</v>
+      <c r="H7" s="17">
+        <v>0.26040000000000008</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="6">
-        <v>0.05</v>
+      <c r="H8" s="18">
+        <v>0.1</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="6">
-        <v>-0.05</v>
+      <c r="H9" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -3590,11 +3909,11 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -3605,11 +3924,11 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -3620,11 +3939,11 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -3635,7 +3954,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -3657,26 +3976,644 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D744F-CF11-46CE-8654-1C704A9B9737}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.73650000000000015</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.26040000000000008</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4C47AE-1E73-4D0F-9DD2-355985429647}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.73650000000000015</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.26040000000000008</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3689,10 +4626,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D35" sqref="D35"/>
-      <selection pane="topRight" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6:H7"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3703,7 +4640,9 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3748,7 +4687,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3791,81 +4730,99 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="17">
         <v>0.62</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="17">
         <v>0.65</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="17">
         <v>0.85</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="17">
         <v>0.19</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="6">
+      <c r="H8" s="18">
         <v>0.1</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="6">
+      <c r="H9" s="18">
         <v>-0.15</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -3876,11 +4833,11 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -3891,11 +4848,11 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -3906,11 +4863,11 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -3921,7 +4878,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -3943,22 +4900,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3966,8 +4923,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0518EA6D-F38F-4F6A-8555-8079C156825A}">
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271EE6D1-75D9-405D-A4CA-8FB1F05E1561}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3975,10 +4932,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="R10" sqref="R10"/>
-      <selection pane="topRight" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3989,7 +4946,9 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4034,7 +4993,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4065,7 +5024,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4077,81 +5036,101 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="17">
-        <v>-2.6557142857142869E-3</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.65</v>
+        <v>5.5E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.51</v>
+      </c>
+      <c r="H6" s="17">
+        <f>0.5504-0.08-0.08</f>
+        <v>0.39039999999999997</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
       <c r="F7" s="17">
-        <v>5.5166428571428582E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.19</v>
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="H7" s="17">
+        <f>0.1552+0.08-0.07</f>
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="6">
-        <v>0.1</v>
+      <c r="H8" s="18">
+        <v>0.05</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="6">
-        <v>-0.15</v>
+      <c r="H9" s="18">
+        <v>-0.05</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -4162,11 +5141,11 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -4177,11 +5156,11 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -4192,11 +5171,11 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -4207,7 +5186,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -4229,22 +5208,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="57" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4252,8 +5231,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B4774B-79F0-4893-845A-6869033BAC75}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF91B1B0-A177-4607-955B-BD3EC7691CEE}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4261,10 +5240,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4275,7 +5254,9 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4320,11 +5301,11 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="9"/>
@@ -4351,7 +5332,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4363,81 +5344,101 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
-        <v>2.6557142857142869E-3</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.65</v>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.51</v>
+      </c>
+      <c r="H6" s="17">
+        <f>0.5504-0.08-0.08</f>
+        <v>0.39039999999999997</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
-        <v>-5.5166428571428582E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.19</v>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="H7" s="17">
+        <f>0.1552+0.08-0.07</f>
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="6">
-        <v>0.1</v>
+      <c r="H8" s="18">
+        <v>0.05</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="6">
-        <v>-0.15</v>
+      <c r="H9" s="18">
+        <v>-0.05</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -4448,11 +5449,11 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -4463,11 +5464,11 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -4478,11 +5479,11 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -4493,7 +5494,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -4515,22 +5516,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4538,19 +5539,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDE7E6E-4C66-4C6D-BB1A-834603CD07F8}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225CE6CA-7B35-4DDF-8A8D-1767B9BA5174}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="R10" sqref="R10"/>
-      <selection pane="topRight" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6:F7"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4561,10 +5562,12 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -4584,7 +5587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4597,7 +5600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -4606,10 +5609,10 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -4623,7 +5626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -4637,10 +5640,10 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="13" t="s">
         <v>13</v>
@@ -4649,89 +5652,99 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="17">
-        <f>-0.000217+0.05</f>
-        <v>4.9783000000000001E-2</v>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19">
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="G6" s="17">
-        <v>0.49198500000000001</v>
+        <v>0.79</v>
       </c>
       <c r="H6" s="17">
-        <v>0.52585999999999999</v>
+        <v>0.81</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="17">
-        <f>-0.000217+0.05</f>
-        <v>4.9783000000000001E-2</v>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="19">
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="G7" s="17">
-        <v>0.71599999999999997</v>
+        <v>0.85</v>
       </c>
       <c r="H7" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.45</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="6">
-        <v>0.1</v>
+      <c r="H8" s="18">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H9" s="18">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -4739,14 +5752,14 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -4754,14 +5767,14 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -4769,14 +5782,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -4784,10 +5797,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -4799,32 +5812,32 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="H16" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4832,8 +5845,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B0F706-8EC8-48DD-9975-D1D6E768746A}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0518EA6D-F38F-4F6A-8555-8079C156825A}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4841,10 +5854,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D35" sqref="D35"/>
-      <selection pane="topRight" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6:F7"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4855,7 +5868,9 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4900,11 +5915,11 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="9"/>
@@ -4931,7 +5946,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <v>5500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4943,83 +5958,99 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
-        <f>-0.01387-0.04</f>
-        <v>-5.3870000000000001E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.49195</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.52285999999999999</v>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19">
+        <v>-2.6557142857142869E-3</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.65</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
-        <f>-0.013587-0.04</f>
-        <v>-5.3587000000000003E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.15</v>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="19">
+        <v>5.5166428571428582E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="6">
+      <c r="H8" s="18">
         <v>0.1</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="6">
-        <v>-0.1</v>
+      <c r="H9" s="18">
+        <v>-0.15</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -5030,11 +6061,11 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5045,11 +6076,11 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -5060,11 +6091,11 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -5075,7 +6106,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -5097,22 +6128,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5120,19 +6151,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303DE00C-0D22-4E10-ADDF-A6B5A2804B27}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B4774B-79F0-4893-845A-6869033BAC75}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="R10" sqref="R10"/>
-      <selection pane="topRight" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5143,10 +6174,12 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -5166,7 +6199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -5179,7 +6212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -5188,11 +6221,11 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="9"/>
@@ -5205,7 +6238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -5219,10 +6252,10 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="13" t="s">
         <v>13</v>
@@ -5231,87 +6264,99 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="17">
-        <v>-0.18698999999999999</v>
+        <v>2.6557142857142869E-3</v>
       </c>
       <c r="G6" s="17">
-        <v>0.13600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="H6" s="17">
-        <v>8.6370000000000002E-2</v>
+        <v>0.65</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
       <c r="F7" s="17">
-        <v>-1.342E-2</v>
+        <v>-5.5166428571428582E-2</v>
       </c>
       <c r="G7" s="17">
-        <v>0.15826999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="H7" s="17">
-        <v>8.8069999999999996E-2</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.19</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="17">
-        <v>2.5000000000000001E-2</v>
+      <c r="H8" s="18">
+        <v>0.1</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="17">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H9" s="18">
+        <v>-0.15</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -5319,14 +6364,14 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5334,14 +6379,14 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -5349,14 +6394,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -5364,10 +6409,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -5379,32 +6424,32 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="H16" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5412,19 +6457,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F89D19-CC9A-4B9F-B46A-567CDA61FCA2}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDE7E6E-4C66-4C6D-BB1A-834603CD07F8}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="R10" sqref="R10"/>
-      <selection pane="topRight" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5435,7 +6480,9 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -5480,7 +6527,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5511,7 +6558,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <v>5000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -5523,17 +6570,21 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="17">
-        <v>0.22999</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0.15606999999999999</v>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.49198500000000001</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.52585999999999999</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -5542,20 +6593,27 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="17">
-        <v>5.9749999999999998E-2</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0.26723000000000002</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0.16078999999999999</v>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="19">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -5563,47 +6621,56 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="18">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="18">
-        <v>-4.4999999999999998E-2</v>
+        <v>-0.1</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -5614,11 +6681,11 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5629,11 +6696,11 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -5644,11 +6711,11 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -5659,7 +6726,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -5681,22 +6748,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5704,19 +6771,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C003C0-2174-4FAC-921C-53CAD52A7556}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B0F706-8EC8-48DD-9975-D1D6E768746A}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="R10" sqref="R10"/>
-      <selection pane="topRight" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6:H7"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5727,7 +6794,317 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17">
+        <f>-0.01387-0.04</f>
+        <v>-5.3870000000000001E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.49195</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.52285999999999999</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
+        <f>-0.013587-0.04</f>
+        <v>-5.3587000000000003E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303DE00C-0D22-4E10-ADDF-A6B5A2804B27}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -5772,7 +7149,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5803,8 +7180,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <f>5000*5*2*5</f>
-        <v>250000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -5816,17 +7192,20 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="17">
-        <v>-0.03</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0.28000000000000003</v>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19">
+        <v>-0.18698999999999999</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H6" s="19">
+        <v>8.6370000000000002E-2</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -5835,20 +7214,26 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="17">
-        <v>-0.03</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0.1</v>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="19">
+        <v>-1.342E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.15826999999999999</v>
+      </c>
+      <c r="H7" s="19">
+        <v>8.8069999999999996E-2</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -5856,47 +7241,56 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="6">
-        <v>0.03</v>
+      <c r="H8" s="20">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="6">
-        <v>-0.03</v>
+      <c r="H9" s="20">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -5907,11 +7301,11 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5922,11 +7316,11 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -5937,11 +7331,11 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -5952,7 +7346,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
@@ -5974,22 +7368,334 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F89D19-CC9A-4B9F-B46A-567CDA61FCA2}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.22999</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.15606999999999999</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="19">
+        <v>5.9749999999999998E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.26723000000000002</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.16078999999999999</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="20">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Linear.xlsx
+++ b/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Dampers\Damper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F53967-C9F9-49CE-A121-9B7D2122A905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97725321-5696-40B8-871D-617E9A0685B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30915" yWindow="1755" windowWidth="25575" windowHeight="13875" tabRatio="967" activeTab="9" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="26895" windowHeight="12540" tabRatio="967" activeTab="7" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,21 @@
     <sheet name="Sedan_HambaLG_stiff_r" sheetId="4" r:id="rId5"/>
     <sheet name="Sedan_Hamba_f" sheetId="5" r:id="rId6"/>
     <sheet name="Sedan_Hamba_r" sheetId="6" r:id="rId7"/>
-    <sheet name="Achilles_f" sheetId="14" r:id="rId8"/>
-    <sheet name="Achilles_r" sheetId="15" r:id="rId9"/>
-    <sheet name="Achilles_Push_f" sheetId="19" r:id="rId10"/>
-    <sheet name="Achilles_Push_r" sheetId="20" r:id="rId11"/>
-    <sheet name="Achilles_DW_f" sheetId="16" r:id="rId12"/>
-    <sheet name="Achilles_DW_r" sheetId="17" r:id="rId13"/>
-    <sheet name="Sedan_Hamba_LiveAxle_r" sheetId="11" r:id="rId14"/>
-    <sheet name="Sedan_Hamba_TwistBeam_r" sheetId="18" r:id="rId15"/>
-    <sheet name="Bus_Makhulu_f" sheetId="7" r:id="rId16"/>
-    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId17"/>
-    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="12" r:id="rId18"/>
-    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="13" r:id="rId19"/>
-    <sheet name="Trailer1Elula_f" sheetId="9" r:id="rId20"/>
-    <sheet name="Trailer1Thwala_f" sheetId="10" r:id="rId21"/>
+    <sheet name="Sedan_Hamba_Mac_f" sheetId="22" r:id="rId8"/>
+    <sheet name="Achilles_f" sheetId="14" r:id="rId9"/>
+    <sheet name="Achilles_r" sheetId="15" r:id="rId10"/>
+    <sheet name="Achilles_Push_f" sheetId="19" r:id="rId11"/>
+    <sheet name="Achilles_Push_r" sheetId="20" r:id="rId12"/>
+    <sheet name="Achilles_DW_f" sheetId="16" r:id="rId13"/>
+    <sheet name="Achilles_DW_r" sheetId="17" r:id="rId14"/>
+    <sheet name="Sedan_Hamba_LiveAxle_r" sheetId="11" r:id="rId15"/>
+    <sheet name="Sedan_Hamba_TwistBeam_r" sheetId="18" r:id="rId16"/>
+    <sheet name="Bus_Makhulu_f" sheetId="7" r:id="rId17"/>
+    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId18"/>
+    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="12" r:id="rId19"/>
+    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="13" r:id="rId20"/>
+    <sheet name="Trailer1Elula_f" sheetId="9" r:id="rId21"/>
+    <sheet name="Trailer1Thwala_f" sheetId="10" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="48">
   <si>
     <t>Units</t>
   </si>
@@ -198,6 +199,9 @@
   <si>
     <t>Sedan_HambaLG_Mac_Linear_A1</t>
   </si>
+  <si>
+    <t>Sedan_Hamba_Mac_Linear_A1</t>
+  </si>
 </sst>
 </file>
 
@@ -318,7 +322,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="88">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1498,22 +1530,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="82" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="81" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1522,18 +1554,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83080E28-D3C4-40AE-9E29-0AD7864B2A78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F89D19-CC9A-4B9F-B46A-567CDA61FCA2}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E6" sqref="E6:E9"/>
       <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8:H9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,7 +1623,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1638,13 +1670,13 @@
         <v>43</v>
       </c>
       <c r="F6" s="19">
-        <v>0.17019999999999999</v>
+        <v>0.22999</v>
       </c>
       <c r="G6" s="19">
-        <v>0.15</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="H6" s="19">
-        <v>0.4</v>
+        <v>0.15606999999999999</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>43</v>
@@ -1666,13 +1698,13 @@
         <v>43</v>
       </c>
       <c r="F7" s="19">
-        <v>-1.342E-2</v>
+        <v>5.9749999999999998E-2</v>
       </c>
       <c r="G7" s="19">
-        <v>0.15826999999999999</v>
+        <v>0.26723000000000002</v>
       </c>
       <c r="H7" s="19">
-        <v>0.4</v>
+        <v>0.16078999999999999</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>43</v>
@@ -1698,7 +1730,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="20">
-        <v>4.2000000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>43</v>
@@ -1719,7 +1751,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="20">
-        <v>-3.7999999999999999E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>43</v>
@@ -1810,22 +1842,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1834,6 +1866,318 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83080E28-D3C4-40AE-9E29-0AD7864B2A78}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="19">
+        <v>-1.342E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.15826999999999999</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="20">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="20">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1E1D6D-5BA2-427B-BE2D-342E15C476C6}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -2122,22 +2466,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2145,7 +2489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C003C0-2174-4FAC-921C-53CAD52A7556}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -2435,22 +2779,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2458,7 +2802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9123868B-3CD7-4B0C-8979-5AA15C1FB32F}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -2748,22 +3092,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2771,7 +3115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8422437-DD08-4914-9D5A-D939D2B8635C}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -3054,22 +3398,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3077,7 +3421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E9CAC4-CF0E-4DF1-8E00-9630BD30D17F}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -3360,22 +3704,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3383,7 +3727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048F6BA7-CA71-43F3-B6EB-63B4345EED12}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -3668,22 +4012,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3691,7 +4035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB004B0-3819-4EDB-9CF7-B5A9725EA714}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -3976,22 +4320,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3999,7 +4343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D744F-CF11-46CE-8654-1C704A9B9737}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4284,331 +4628,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4C47AE-1E73-4D0F-9DD2-355985429647}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E6" sqref="E6:E9"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="17">
-        <f>-0.07</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0.62</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0.73650000000000015</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="17">
-        <f>-0.0013-0.05</f>
-        <v>-5.1300000000000005E-2</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0.68</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0.26040000000000008</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="18">
-        <v>-0.1</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="H16" s="16"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4900,22 +4935,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="76" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4924,6 +4959,315 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4C47AE-1E73-4D0F-9DD2-355985429647}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.73650000000000015</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.26040000000000008</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271EE6D1-75D9-405D-A4CA-8FB1F05E1561}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -5208,22 +5552,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5231,7 +5575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF91B1B0-A177-4607-955B-BD3EC7691CEE}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -5516,22 +5860,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5822,22 +6166,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6128,22 +6472,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="69" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6434,22 +6778,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6469,7 +6813,7 @@
       <selection activeCell="E6" sqref="E6:E9"/>
       <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6748,22 +7092,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7056,22 +7400,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7080,6 +7424,320 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC3048A-46B3-487E-865A-6BB0F9AF5FB5}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.65</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.78</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="19">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.42</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="18">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303DE00C-0D22-4E10-ADDF-A6B5A2804B27}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -7368,334 +8026,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F89D19-CC9A-4B9F-B46A-567CDA61FCA2}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:O16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E6" sqref="E6:E9"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.22999</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="H6" s="19">
-        <v>0.15606999999999999</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="19">
-        <v>5.9749999999999998E-2</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0.26723000000000002</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0.16078999999999999</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="20">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="20">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="H16" s="16"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Linear.xlsx
+++ b/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Dampers\Damper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vtpVDG\Libraries\Vehicle\Dampers\Damper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97725321-5696-40B8-871D-617E9A0685B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A44F6A-6063-4B2A-A118-C56BB5DD4133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="26895" windowHeight="12540" tabRatio="967" activeTab="7" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15330" windowHeight="13050" tabRatio="967" firstSheet="4" activeTab="8" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,21 @@
     <sheet name="Sedan_Hamba_f" sheetId="5" r:id="rId6"/>
     <sheet name="Sedan_Hamba_r" sheetId="6" r:id="rId7"/>
     <sheet name="Sedan_Hamba_Mac_f" sheetId="22" r:id="rId8"/>
-    <sheet name="Achilles_f" sheetId="14" r:id="rId9"/>
-    <sheet name="Achilles_r" sheetId="15" r:id="rId10"/>
-    <sheet name="Achilles_Push_f" sheetId="19" r:id="rId11"/>
-    <sheet name="Achilles_Push_r" sheetId="20" r:id="rId12"/>
-    <sheet name="Achilles_DW_f" sheetId="16" r:id="rId13"/>
-    <sheet name="Achilles_DW_r" sheetId="17" r:id="rId14"/>
-    <sheet name="Sedan_Hamba_LiveAxle_r" sheetId="11" r:id="rId15"/>
-    <sheet name="Sedan_Hamba_TwistBeam_r" sheetId="18" r:id="rId16"/>
-    <sheet name="Bus_Makhulu_f" sheetId="7" r:id="rId17"/>
-    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId18"/>
-    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="12" r:id="rId19"/>
-    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="13" r:id="rId20"/>
-    <sheet name="Trailer1Elula_f" sheetId="9" r:id="rId21"/>
-    <sheet name="Trailer1Thwala_f" sheetId="10" r:id="rId22"/>
+    <sheet name="SUV_Landy_f" sheetId="23" r:id="rId9"/>
+    <sheet name="Achilles_f" sheetId="14" r:id="rId10"/>
+    <sheet name="Achilles_r" sheetId="15" r:id="rId11"/>
+    <sheet name="Achilles_Push_f" sheetId="19" r:id="rId12"/>
+    <sheet name="Achilles_Push_r" sheetId="20" r:id="rId13"/>
+    <sheet name="Achilles_DW_f" sheetId="16" r:id="rId14"/>
+    <sheet name="Achilles_DW_r" sheetId="17" r:id="rId15"/>
+    <sheet name="Sedan_Hamba_LiveAxle_r" sheetId="11" r:id="rId16"/>
+    <sheet name="Sedan_Hamba_TwistBeam_r" sheetId="18" r:id="rId17"/>
+    <sheet name="Bus_Makhulu_f" sheetId="7" r:id="rId18"/>
+    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId19"/>
+    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="12" r:id="rId20"/>
+    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="13" r:id="rId21"/>
+    <sheet name="Trailer1Elula_f" sheetId="9" r:id="rId22"/>
+    <sheet name="Trailer1Thwala_f" sheetId="10" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="49">
   <si>
     <t>Units</t>
   </si>
@@ -202,6 +203,9 @@
   <si>
     <t>Sedan_Hamba_Mac_Linear_A1</t>
   </si>
+  <si>
+    <t>SUV_Landy_Linear_A1</t>
+  </si>
 </sst>
 </file>
 
@@ -280,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -318,11 +322,40 @@
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="92">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1530,22 +1563,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="86" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="84" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1554,6 +1587,318 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303DE00C-0D22-4E10-ADDF-A6B5A2804B27}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19">
+        <v>-0.18698999999999999</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H6" s="19">
+        <v>8.6370000000000002E-2</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="19">
+        <v>-1.342E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.15826999999999999</v>
+      </c>
+      <c r="H7" s="19">
+        <v>8.8069999999999996E-2</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="20">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F89D19-CC9A-4B9F-B46A-567CDA61FCA2}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -1842,22 +2187,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1865,7 +2210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83080E28-D3C4-40AE-9E29-0AD7864B2A78}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -2154,22 +2499,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2177,7 +2522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1E1D6D-5BA2-427B-BE2D-342E15C476C6}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -2466,22 +2811,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2489,7 +2834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C003C0-2174-4FAC-921C-53CAD52A7556}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -2779,22 +3124,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2802,7 +3147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9123868B-3CD7-4B0C-8979-5AA15C1FB32F}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -3092,22 +3437,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3115,7 +3460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8422437-DD08-4914-9D5A-D939D2B8635C}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -3398,22 +3743,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3421,7 +3766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E9CAC4-CF0E-4DF1-8E00-9630BD30D17F}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -3704,22 +4049,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3727,7 +4072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048F6BA7-CA71-43F3-B6EB-63B4345EED12}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4012,22 +4357,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4035,7 +4380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB004B0-3819-4EDB-9CF7-B5A9725EA714}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4320,314 +4665,6 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D744F-CF11-46CE-8654-1C704A9B9737}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E6" sqref="E6:E9"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="17">
-        <f>-0.07</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0.62</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0.73650000000000015</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="17">
-        <f>-0.0013-0.05</f>
-        <v>-5.1300000000000005E-2</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0.68</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0.26040000000000008</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="18">
-        <v>-0.1</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="H16" s="16"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4">
     <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -4648,7 +4685,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4935,22 +4971,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="82" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4959,6 +4995,315 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D744F-CF11-46CE-8654-1C704A9B9737}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.73650000000000015</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.26040000000000008</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4C47AE-1E73-4D0F-9DD2-355985429647}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -5243,22 +5588,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5267,7 +5612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271EE6D1-75D9-405D-A4CA-8FB1F05E1561}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -5552,22 +5897,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5575,7 +5920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF91B1B0-A177-4607-955B-BD3EC7691CEE}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -5860,22 +6205,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6166,22 +6511,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="77" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6472,22 +6817,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6778,22 +7123,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="68" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7092,22 +7437,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="65" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7400,22 +7745,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7430,7 +7775,7 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E6" sqref="E6:E9"/>
       <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
@@ -7714,22 +8059,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7738,18 +8083,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303DE00C-0D22-4E10-ADDF-A6B5A2804B27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4921573F-1F11-4ADF-905B-6CC58B4F678C}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E6" sqref="E6:E9"/>
       <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7807,7 +8152,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -7838,7 +8183,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <v>5000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -7853,14 +8198,14 @@
       <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="19">
-        <v>-0.18698999999999999</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="H6" s="19">
-        <v>8.6370000000000002E-2</v>
+      <c r="F6" s="21">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.50453999999999999</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.62</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>43</v>
@@ -7881,14 +8226,14 @@
       <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="19">
-        <v>-1.342E-2</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0.15826999999999999</v>
-      </c>
-      <c r="H7" s="19">
-        <v>8.8069999999999996E-2</v>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.50453999999999999</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.5</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>43</v>
@@ -7913,8 +8258,8 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="20">
-        <v>2.5000000000000001E-2</v>
+      <c r="H8" s="18">
+        <v>0.13500000000000001</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>43</v>
@@ -7934,8 +8279,8 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="20">
-        <v>-4.4999999999999998E-2</v>
+      <c r="H9" s="18">
+        <v>-0.115</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>43</v>
@@ -8036,7 +8381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="57" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Linear.xlsx
+++ b/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vtpVDG\Libraries\Vehicle\Dampers\Damper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Dampers\Damper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A44F6A-6063-4B2A-A118-C56BB5DD4133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAC1278-0785-4727-91D1-EC67994AC00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15330" windowHeight="13050" tabRatio="967" firstSheet="4" activeTab="8" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
+    <workbookView xWindow="29805" yWindow="3375" windowWidth="21600" windowHeight="11235" tabRatio="967" firstSheet="9" activeTab="17" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,24 @@
     <sheet name="Sedan_Hamba_f" sheetId="5" r:id="rId6"/>
     <sheet name="Sedan_Hamba_r" sheetId="6" r:id="rId7"/>
     <sheet name="Sedan_Hamba_Mac_f" sheetId="22" r:id="rId8"/>
-    <sheet name="SUV_Landy_f" sheetId="23" r:id="rId9"/>
-    <sheet name="Achilles_f" sheetId="14" r:id="rId10"/>
-    <sheet name="Achilles_r" sheetId="15" r:id="rId11"/>
-    <sheet name="Achilles_Push_f" sheetId="19" r:id="rId12"/>
-    <sheet name="Achilles_Push_r" sheetId="20" r:id="rId13"/>
-    <sheet name="Achilles_DW_f" sheetId="16" r:id="rId14"/>
-    <sheet name="Achilles_DW_r" sheetId="17" r:id="rId15"/>
-    <sheet name="Sedan_Hamba_LiveAxle_r" sheetId="11" r:id="rId16"/>
-    <sheet name="Sedan_Hamba_TwistBeam_r" sheetId="18" r:id="rId17"/>
-    <sheet name="Bus_Makhulu_f" sheetId="7" r:id="rId18"/>
-    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId19"/>
-    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="12" r:id="rId20"/>
-    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="13" r:id="rId21"/>
-    <sheet name="Trailer1Elula_f" sheetId="9" r:id="rId22"/>
-    <sheet name="Trailer1Thwala_f" sheetId="10" r:id="rId23"/>
+    <sheet name="SUV_Landy_TA2PR_f" sheetId="23" r:id="rId9"/>
+    <sheet name="SUV_Landy_DW_f" sheetId="26" r:id="rId10"/>
+    <sheet name="SUV_Landy_TA3_r" sheetId="24" r:id="rId11"/>
+    <sheet name="SUV_Landy_TA4Watts_r" sheetId="25" r:id="rId12"/>
+    <sheet name="Achilles_f" sheetId="14" r:id="rId13"/>
+    <sheet name="Achilles_r" sheetId="15" r:id="rId14"/>
+    <sheet name="Achilles_Push_f" sheetId="19" r:id="rId15"/>
+    <sheet name="Achilles_Push_r" sheetId="20" r:id="rId16"/>
+    <sheet name="Achilles_DW_f" sheetId="16" r:id="rId17"/>
+    <sheet name="Achilles_DW_r" sheetId="17" r:id="rId18"/>
+    <sheet name="Sedan_Hamba_LiveAxle_r" sheetId="11" r:id="rId19"/>
+    <sheet name="Sedan_Hamba_TwistBeam_r" sheetId="18" r:id="rId20"/>
+    <sheet name="Bus_Makhulu_f" sheetId="7" r:id="rId21"/>
+    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId22"/>
+    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="12" r:id="rId23"/>
+    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="13" r:id="rId24"/>
+    <sheet name="Trailer1Elula_f" sheetId="9" r:id="rId25"/>
+    <sheet name="Trailer1Thwala_f" sheetId="10" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="52">
   <si>
     <t>Units</t>
   </si>
@@ -204,7 +207,16 @@
     <t>Sedan_Hamba_Mac_Linear_A1</t>
   </si>
   <si>
-    <t>SUV_Landy_Linear_A1</t>
+    <t>SUV_Landy_TA2PR_Linear_A1</t>
+  </si>
+  <si>
+    <t>SUV_Landy_TA3_Linear_A2</t>
+  </si>
+  <si>
+    <t>SUV_Landy_TA4Watts_Linear_A2</t>
+  </si>
+  <si>
+    <t>SUV_Landy_DW_Linear_A1</t>
   </si>
 </sst>
 </file>
@@ -327,7 +339,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="104">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1563,22 +1659,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="89" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1587,6 +1683,947 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D57AC8F-BE69-4470-8A4D-D5FB6E915DC1}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19">
+        <v>-2.6557142857142869E-3</v>
+      </c>
+      <c r="G6" s="17">
+        <f>0.62-0.25</f>
+        <v>0.37</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="19">
+        <v>5.5166428571428582E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <f>0.85-0.25</f>
+        <v>0.6</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="18">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18">
+        <v>-0.115</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="65" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B338D640-CBA3-483E-A877-B1ED0C3DFFA1}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="21">
+        <f>2.8-2.79</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.67633500000000002</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="21">
+        <f>2.8-2.79</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.54</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="18">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18">
+        <v>-0.115</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F61E580-D0CE-4590-9FDA-35B09927279F}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="21">
+        <f>-0.2</f>
+        <v>-0.2</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="18">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18">
+        <v>-0.115</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303DE00C-0D22-4E10-ADDF-A6B5A2804B27}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -1898,7 +2935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F89D19-CC9A-4B9F-B46A-567CDA61FCA2}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -2210,7 +3247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83080E28-D3C4-40AE-9E29-0AD7864B2A78}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -2522,7 +3559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1E1D6D-5BA2-427B-BE2D-342E15C476C6}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -2834,7 +3871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C003C0-2174-4FAC-921C-53CAD52A7556}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -2846,7 +3883,7 @@
       <selection activeCell="E6" sqref="E6:E9"/>
       <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2935,8 +3972,8 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <f>5000*5*2*5</f>
-        <v>250000</v>
+        <f>5000*5*2*5*3</f>
+        <v>750000</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -3147,19 +4184,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9123868B-3CD7-4B0C-8979-5AA15C1FB32F}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E6" sqref="E6:E9"/>
       <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3248,8 +4285,8 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <f>5000*5*2*5</f>
-        <v>250000</v>
+        <f>5000*5*2*5*3</f>
+        <v>750000</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -3460,7 +4497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8422437-DD08-4914-9D5A-D939D2B8635C}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -3759,928 +4796,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
     <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E9CAC4-CF0E-4DF1-8E00-9630BD30D17F}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O13" sqref="O13"/>
-      <selection pane="topRight" activeCell="O13" sqref="O13"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0.68</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0.26</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="18">
-        <v>-0.15</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="H16" s="16"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048F6BA7-CA71-43F3-B6EB-63B4345EED12}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="J6" sqref="J6"/>
-      <selection pane="topRight" activeCell="J6" sqref="J6"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="17">
-        <f>-0.0022+0.02</f>
-        <v>1.78E-2</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0.68</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0.73380000000000001</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="17">
-        <f>0.0457+0.02</f>
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0.74</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="18">
-        <v>-0.1</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="H16" s="16"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB004B0-3819-4EDB-9CF7-B5A9725EA714}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E6" sqref="E6:E9"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="17">
-        <f>-0.07</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0.62</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0.73650000000000015</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="17">
-        <f>-0.0013-0.05</f>
-        <v>-5.1300000000000005E-2</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0.68</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0.26040000000000008</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="18">
-        <v>-0.1</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="H16" s="16"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4971,22 +5086,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="86" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4995,6 +5110,928 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E9CAC4-CF0E-4DF1-8E00-9630BD30D17F}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="O13" sqref="O13"/>
+      <selection pane="topRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18">
+        <v>-0.15</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048F6BA7-CA71-43F3-B6EB-63B4345EED12}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J6" sqref="J6"/>
+      <selection pane="topRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17">
+        <f>-0.0022+0.02</f>
+        <v>1.78E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
+        <f>0.0457+0.02</f>
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB004B0-3819-4EDB-9CF7-B5A9725EA714}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.73650000000000015</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.26040000000000008</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B14">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D744F-CF11-46CE-8654-1C704A9B9737}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -5303,7 +6340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4C47AE-1E73-4D0F-9DD2-355985429647}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -5612,7 +6649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271EE6D1-75D9-405D-A4CA-8FB1F05E1561}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -5920,7 +6957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF91B1B0-A177-4607-955B-BD3EC7691CEE}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -6511,22 +7548,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="82" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="81" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6817,22 +7854,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7123,22 +8160,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="74" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7437,22 +8474,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="69" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7745,22 +8782,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8059,22 +9096,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8089,12 +9126,12 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E6" sqref="E6:E9"/>
       <selection pane="topRight" activeCell="E6" sqref="E6:E9"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6:E9"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6:H7"/>
+      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8371,22 +9408,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B14">
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
